--- a/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Documents.xlsx
+++ b/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Documents.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Fulcrum_FluidTX_Trunk\src\com\proj\objectRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_EXCL_JUL\Excelens_Trunk\src\com\proj\objectRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7980" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7980" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" state="hidden" r:id="rId1"/>
@@ -17,15 +17,15 @@
     <sheet name="Objects_Documents_Toolbar" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Objects_Documents!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Objects_Documents!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Objects_Documents_Toolbar!$A$1:$G$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
   <si>
     <t>textbox</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>.//*[@id='Hero-WPQ2']/descendant::span[text()='new document']</t>
-  </si>
-  <si>
     <t>.//*[@title='Document Name']</t>
   </si>
   <si>
@@ -303,21 +300,12 @@
     <t>CheckOut</t>
   </si>
   <si>
-    <t>.//*[text()='Check Out']</t>
-  </si>
-  <si>
-    <t>.//*[text()='Check In']</t>
-  </si>
-  <si>
     <t>ValidateCheckIn</t>
   </si>
   <si>
     <t>ValidateCheckOut</t>
   </si>
   <si>
-    <t>.//*[text()='Publish']</t>
-  </si>
-  <si>
     <t>VaidatePublish</t>
   </si>
   <si>
@@ -328,12 +316,45 @@
   </si>
   <si>
     <t>.//*[@name='CheckinDescription']</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>.//button[text()='Upload']</t>
+  </si>
+  <si>
+    <t>.//button[text()='New']</t>
+  </si>
+  <si>
+    <t>element_disable_attribute</t>
+  </si>
+  <si>
+    <t>button_scrollable</t>
+  </si>
+  <si>
+    <t>Ribbon.Documents.Workflow.Publish-Large</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Ribbon.Documents.EditCheckout.CheckIn-Medium</t>
+  </si>
+  <si>
+    <t>Ribbon.Documents.EditCheckout.CheckOut-Medium</t>
+  </si>
+  <si>
+    <t>Check in As Major Version</t>
+  </si>
+  <si>
+    <t>.//*[@id='PublishMajorVersion']/td/input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -762,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A37"/>
+  <dimension ref="A2:A39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -951,6 +972,16 @@
     <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -967,10 +998,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1027,54 +1058,54 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -1083,26 +1114,26 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1111,40 +1142,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -1153,26 +1184,26 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -1181,12 +1212,12 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -1195,65 +1226,65 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>100</v>
+      <c r="E17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -1262,12 +1293,12 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="B23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -1276,71 +1307,99 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="E26" s="4"/>
+    <row r="27" spans="1:7">
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 C35 C29:C30 C19:C27 C3:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34 C37 C31:C32 C21:C29 C3:C19">
       <formula1>"id,name,xpath"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1354,7 +1413,7 @@
           <x14:formula1>
             <xm:f>Objects!$A$2:$A$39</xm:f>
           </x14:formula1>
-          <xm:sqref>D27 D29:D30 D32 D35 D20:D24 D3:D17</xm:sqref>
+          <xm:sqref>D29 D31:D32 D34 D37 D22:D26 D3:D19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1366,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1446,100 +1505,100 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9">

--- a/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Documents.xlsx
+++ b/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Documents.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
   <si>
     <t>textbox</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>.//*[@id='PublishMajorVersion']/td/input</t>
+  </si>
+  <si>
+    <t>movetoelement_click</t>
   </si>
 </sst>
 </file>
@@ -783,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A39"/>
+  <dimension ref="A2:A40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -982,6 +985,11 @@
     <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
